--- a/Results.xlsx
+++ b/Results.xlsx
@@ -2,18 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinygobby/Desktop/Projects/Makers/Week_10/algorithmic-complexity/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C49FD-112F-D94D-AFE1-1204031206EC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133718FA-9FD8-C446-A57D-5936CC6B190C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{55AD68BF-37E3-EA42-BDC5-DFDA6E8E6F44}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall" sheetId="7" r:id="rId1"/>
+    <sheet name="Last" sheetId="2" r:id="rId2"/>
+    <sheet name="Reverse" sheetId="1" r:id="rId3"/>
+    <sheet name="Shuffle" sheetId="4" r:id="rId4"/>
+    <sheet name="Sort" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+  <si>
+    <t>Reverse</t>
+  </si>
   <si>
     <t>Minimum</t>
   </si>
@@ -48,13 +55,31 @@
     <t>Size of Array</t>
   </si>
   <si>
-    <t>1 s wait time between iterations</t>
+    <t>100 iterations</t>
+  </si>
+  <si>
+    <t>Last(ns)</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
+  </si>
+  <si>
+    <t>Sort</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -84,8 +109,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -101,6 +127,4678 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Last</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1319-1544-8731-D2EFAA8E2A59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reverse</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>585.88300000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1099.874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1764.2070000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2315.3490000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2850.9769999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3697.7260000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3882.3739999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4622.317</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5279.2849999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5834.9219999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1319-1544-8731-D2EFAA8E2A59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shuffle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1319-1544-8731-D2EFAA8E2A59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overall!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1319-1544-8731-D2EFAA8E2A59}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="220564479"/>
+        <c:axId val="220583199"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="220564479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220583199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="220583199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220564479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Last</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Last!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59BA-9A43-960B-70FF30820C8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="220477871"/>
+        <c:axId val="220479551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="220477871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220479551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="220479551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220477871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reverse</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Reverse!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>585.88300000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1099.874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1764.2070000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2315.3490000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2850.9769999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3697.7260000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3882.3739999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4622.317</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5279.2849999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5834.9219999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1306-E54D-B3B5-6723B1BD08E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="220477871"/>
+        <c:axId val="220479551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="220477871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220479551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="220479551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220477871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reverse</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Shuffle!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-354F-BB40-904E-B12B4AD96F7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="220477871"/>
+        <c:axId val="220479551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="220477871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220479551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="220479551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220477871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Reverse</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sort!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-413A-9C45-9732-244CA86AB54C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="220477871"/>
+        <c:axId val="220479551"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="220477871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220479551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="220479551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="220477871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C02C4845-636F-5E4F-A24B-C1B9563C5EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F28F80-B7D7-A74A-8C64-D761B8A9BDED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FA2972-BC6D-B34C-BC79-E675F4C188E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADDE337-17B7-374C-8AB4-43C4A94E0E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>768350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C63AEA-232C-2B48-A415-6079D98B2F89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,11 +5097,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19286BA-629F-524E-A7E7-59FE5BA336E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909E9FA2-7A70-DD4C-B25A-29F9079A6979}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>Last!C3</f>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="B3">
+        <f>Reverse!C3</f>
+        <v>585.88300000000004</v>
+      </c>
+      <c r="C3">
+        <f>Shuffle!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>Sort!C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>Last!C4</f>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="B4">
+        <f>Reverse!C4</f>
+        <v>1099.874</v>
+      </c>
+      <c r="C4">
+        <f>Shuffle!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Sort!C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>Last!C5</f>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="B5">
+        <f>Reverse!C5</f>
+        <v>1764.2070000000001</v>
+      </c>
+      <c r="C5">
+        <f>Shuffle!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>Sort!C5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>Last!C6</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="B6">
+        <f>Reverse!C6</f>
+        <v>2315.3490000000002</v>
+      </c>
+      <c r="C6">
+        <f>Shuffle!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>Sort!C6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>Last!C7</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="B7">
+        <f>Reverse!C7</f>
+        <v>2850.9769999999999</v>
+      </c>
+      <c r="C7">
+        <f>Shuffle!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>Sort!C7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f>Last!C8</f>
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="B8">
+        <f>Reverse!C8</f>
+        <v>3697.7260000000001</v>
+      </c>
+      <c r="C8">
+        <f>Shuffle!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>Sort!C8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f>Last!C9</f>
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="B9">
+        <f>Reverse!C9</f>
+        <v>3882.3739999999998</v>
+      </c>
+      <c r="C9">
+        <f>Shuffle!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>Sort!C9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f>Last!C10</f>
+        <v>0.82</v>
+      </c>
+      <c r="B10">
+        <f>Reverse!C10</f>
+        <v>4622.317</v>
+      </c>
+      <c r="C10">
+        <f>Shuffle!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>Sort!C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f>Last!C11</f>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="B11">
+        <f>Reverse!C11</f>
+        <v>5279.2849999999999</v>
+      </c>
+      <c r="C11">
+        <f>Shuffle!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>Sort!C11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f>Last!C12</f>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="B12">
+        <f>Reverse!C12</f>
+        <v>5834.9219999999996</v>
+      </c>
+      <c r="C12">
+        <f>Shuffle!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>Sort!C12</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A823CF-613D-4345-BA73-2F3072988B66}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,83 +5328,701 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000</v>
       </c>
+      <c r="B3" s="1">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14.72</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.14099999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2000</v>
       </c>
+      <c r="B4" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.155</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3000</v>
       </c>
+      <c r="B5" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4000</v>
       </c>
+      <c r="B6" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.3E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5000</v>
       </c>
+      <c r="B7" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.1E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6000</v>
       </c>
+      <c r="B8" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7000</v>
       </c>
+      <c r="B9" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8000</v>
       </c>
+      <c r="B10" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9000</v>
       </c>
+      <c r="B11" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10000</v>
       </c>
+      <c r="B12" s="1">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.7E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19286BA-629F-524E-A7E7-59FE5BA336E0}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="1">
+        <v>558.35599999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>585.88300000000004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1042.0909999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>52.488999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1074.347</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1099.874</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1255.518</v>
+      </c>
+      <c r="E4" s="1">
+        <v>32.357999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1610.7529999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1764.2070000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2267.4540000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>174.47300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2154.136</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2315.3490000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2542.4949999999999</v>
+      </c>
+      <c r="E6" s="1">
+        <v>106.051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2697.9960000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2850.9769999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3083.7440000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>97.025999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3222.7759999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3697.7260000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5048.3410000000003</v>
+      </c>
+      <c r="E8" s="1">
+        <v>459.99799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3751.0459999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3882.3739999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4332.5770000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>138.596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8000</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4294.5590000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4622.317</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5580.4250000000002</v>
+      </c>
+      <c r="E10" s="1">
+        <v>264.22899999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4819.5450000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5279.2849999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6735.6530000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>416.53899999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5462.335</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5834.9219999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10695.126</v>
+      </c>
+      <c r="E12" s="1">
+        <v>764.13699999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B1A1C0-A2D8-0F48-B446-3388061B4743}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3000</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4000</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6000</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7000</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8000</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9000</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACF2990-EF06-C44F-8881-00134AF392E8}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3000</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4000</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5000</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6000</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7000</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8000</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9000</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinygobby/Desktop/Projects/Makers/Week_10/algorithmic-complexity/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133718FA-9FD8-C446-A57D-5936CC6B190C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439E7061-8822-C844-81DF-0BBA7F9396CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{55AD68BF-37E3-EA42-BDC5-DFDA6E8E6F44}"/>
+    <workbookView xWindow="21780" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="2" xr2:uid="{55AD68BF-37E3-EA42-BDC5-DFDA6E8E6F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>Reverse</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>Sort</t>
+  </si>
+  <si>
+    <t>Shuffle(μs)</t>
+  </si>
+  <si>
+    <t>Sort(μs)</t>
+  </si>
+  <si>
+    <t>1000 iterations</t>
   </si>
 </sst>
 </file>
@@ -184,7 +193,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overall!$A$2</c:f>
+              <c:f>Overall!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -205,41 +214,80 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
               <c:f>Overall!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.89400000000000002</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82699999999999996</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78200000000000003</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78500000000000003</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79500000000000004</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83699999999999997</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80100000000000005</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81799999999999995</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81299999999999994</c:v>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,7 +304,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overall!$B$2</c:f>
+              <c:f>Overall!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -277,9 +325,48 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Overall!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Overall!$B$3:$B$12</c:f>
+              <c:f>Overall!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -328,7 +415,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overall!$C$2</c:f>
+              <c:f>Overall!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -349,41 +436,80 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Overall!$C$3:$C$12</c:f>
+              <c:f>Overall!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1294.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2832.7000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3793.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5745.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6641.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8239.2999999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9107.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11784.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13090.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13817.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -400,7 +526,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Overall!$D$2</c:f>
+              <c:f>Overall!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -421,41 +547,80 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:cat>
             <c:numRef>
-              <c:f>Overall!$D$3:$D$12</c:f>
+              <c:f>Overall!$A$3:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overall!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>219.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>482.30000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>704.19999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>858.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>993.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1160.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1599.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1853.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2100.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,44 +649,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="220583199"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -534,7 +667,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -554,33 +687,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="220564479"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -1366,6 +1472,36 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12.946</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.327000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.935000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.454000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.393000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.073999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>117.846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>130.90899999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>138.179</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1636,6 +1772,36 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.1930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.994999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.536000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.001000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4594,13 +4760,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -5098,211 +5264,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909E9FA2-7A70-DD4C-B25A-29F9079A6979}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>Last!C3</f>
-        <v>0.89400000000000002</v>
+        <v>1000</v>
       </c>
       <c r="B3">
+        <f>Last!C3 * 1000</f>
+        <v>894</v>
+      </c>
+      <c r="C3">
         <f>Reverse!C3</f>
         <v>585.88300000000004</v>
       </c>
-      <c r="C3">
-        <f>Shuffle!C3</f>
-        <v>0</v>
-      </c>
       <c r="D3">
-        <f>Sort!C3</f>
-        <v>0</v>
+        <f>Shuffle!C3 * 100</f>
+        <v>1294.5999999999999</v>
+      </c>
+      <c r="E3">
+        <f>Sort!C3*100</f>
+        <v>219.3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>Last!C4</f>
-        <v>0.82699999999999996</v>
+        <v>2000</v>
       </c>
       <c r="B4">
+        <f>Last!C4 * 1000</f>
+        <v>827</v>
+      </c>
+      <c r="C4">
         <f>Reverse!C4</f>
         <v>1099.874</v>
       </c>
-      <c r="C4">
-        <f>Shuffle!C4</f>
-        <v>0</v>
-      </c>
       <c r="D4">
-        <f>Sort!C4</f>
-        <v>0</v>
+        <f>Shuffle!C4 * 100</f>
+        <v>2832.7000000000003</v>
+      </c>
+      <c r="E4">
+        <f>Sort!C4*100</f>
+        <v>482.30000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>Last!C5</f>
-        <v>0.78200000000000003</v>
+        <v>3000</v>
       </c>
       <c r="B5">
+        <f>Last!C5 * 1000</f>
+        <v>782</v>
+      </c>
+      <c r="C5">
         <f>Reverse!C5</f>
         <v>1764.2070000000001</v>
       </c>
-      <c r="C5">
-        <f>Shuffle!C5</f>
-        <v>0</v>
-      </c>
       <c r="D5">
-        <f>Sort!C5</f>
-        <v>0</v>
+        <f>Shuffle!C5 * 100</f>
+        <v>3793.5</v>
+      </c>
+      <c r="E5">
+        <f>Sort!C5*100</f>
+        <v>704.19999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>Last!C6</f>
-        <v>0.78500000000000003</v>
+        <v>4000</v>
       </c>
       <c r="B6">
+        <f>Last!C6 * 1000</f>
+        <v>785</v>
+      </c>
+      <c r="C6">
         <f>Reverse!C6</f>
         <v>2315.3490000000002</v>
       </c>
-      <c r="C6">
-        <f>Shuffle!C6</f>
-        <v>0</v>
-      </c>
       <c r="D6">
-        <f>Sort!C6</f>
-        <v>0</v>
+        <f>Shuffle!C6 * 100</f>
+        <v>5745.4</v>
+      </c>
+      <c r="E6">
+        <f>Sort!C6*100</f>
+        <v>858.6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>Last!C7</f>
-        <v>0.79500000000000004</v>
+        <v>5000</v>
       </c>
       <c r="B7">
+        <f>Last!C7 * 1000</f>
+        <v>795</v>
+      </c>
+      <c r="C7">
         <f>Reverse!C7</f>
         <v>2850.9769999999999</v>
       </c>
-      <c r="C7">
-        <f>Shuffle!C7</f>
-        <v>0</v>
-      </c>
       <c r="D7">
-        <f>Sort!C7</f>
-        <v>0</v>
+        <f>Shuffle!C7 * 100</f>
+        <v>6641.4000000000005</v>
+      </c>
+      <c r="E7">
+        <f>Sort!C7*100</f>
+        <v>993.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>Last!C8</f>
-        <v>0.83699999999999997</v>
+        <v>6000</v>
       </c>
       <c r="B8">
+        <f>Last!C8 * 1000</f>
+        <v>837</v>
+      </c>
+      <c r="C8">
         <f>Reverse!C8</f>
         <v>3697.7260000000001</v>
       </c>
-      <c r="C8">
-        <f>Shuffle!C8</f>
-        <v>0</v>
-      </c>
       <c r="D8">
-        <f>Sort!C8</f>
-        <v>0</v>
+        <f>Shuffle!C8 * 100</f>
+        <v>8239.2999999999993</v>
+      </c>
+      <c r="E8">
+        <f>Sort!C8*100</f>
+        <v>1160.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>Last!C9</f>
-        <v>0.80100000000000005</v>
+        <v>7000</v>
       </c>
       <c r="B9">
+        <f>Last!C9 * 1000</f>
+        <v>801</v>
+      </c>
+      <c r="C9">
         <f>Reverse!C9</f>
         <v>3882.3739999999998</v>
       </c>
-      <c r="C9">
-        <f>Shuffle!C9</f>
-        <v>0</v>
-      </c>
       <c r="D9">
-        <f>Sort!C9</f>
-        <v>0</v>
+        <f>Shuffle!C9 * 100</f>
+        <v>9107.4</v>
+      </c>
+      <c r="E9">
+        <f>Sort!C9*100</f>
+        <v>1599.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>Last!C10</f>
-        <v>0.82</v>
+        <v>8000</v>
       </c>
       <c r="B10">
+        <f>Last!C10 * 1000</f>
+        <v>820</v>
+      </c>
+      <c r="C10">
         <f>Reverse!C10</f>
         <v>4622.317</v>
       </c>
-      <c r="C10">
-        <f>Shuffle!C10</f>
-        <v>0</v>
-      </c>
       <c r="D10">
-        <f>Sort!C10</f>
-        <v>0</v>
+        <f>Shuffle!C10 * 100</f>
+        <v>11784.6</v>
+      </c>
+      <c r="E10">
+        <f>Sort!C10*100</f>
+        <v>1853.6000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>Last!C11</f>
-        <v>0.81799999999999995</v>
+        <v>9000</v>
       </c>
       <c r="B11">
+        <f>Last!C11 * 1000</f>
+        <v>818</v>
+      </c>
+      <c r="C11">
         <f>Reverse!C11</f>
         <v>5279.2849999999999</v>
       </c>
-      <c r="C11">
-        <f>Shuffle!C11</f>
-        <v>0</v>
-      </c>
       <c r="D11">
-        <f>Sort!C11</f>
-        <v>0</v>
+        <f>Shuffle!C11 * 100</f>
+        <v>13090.9</v>
+      </c>
+      <c r="E11">
+        <f>Sort!C11*100</f>
+        <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f>Last!C12</f>
-        <v>0.81299999999999994</v>
+        <v>10000</v>
       </c>
       <c r="B12">
+        <f>Last!C12 * 1000</f>
+        <v>813</v>
+      </c>
+      <c r="C12">
         <f>Reverse!C12</f>
         <v>5834.9219999999996</v>
       </c>
-      <c r="C12">
-        <f>Shuffle!C12</f>
-        <v>0</v>
-      </c>
       <c r="D12">
-        <f>Sort!C12</f>
-        <v>0</v>
+        <f>Shuffle!C12 * 100</f>
+        <v>13817.9</v>
+      </c>
+      <c r="E12">
+        <f>Sort!C12*100</f>
+        <v>2100.1</v>
       </c>
     </row>
   </sheetData>
@@ -5535,8 +5731,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5755,7 +5951,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5766,7 +5962,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
@@ -5796,91 +5992,171 @@
       <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1">
+        <v>11.263999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12.946</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19.21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1.3049999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1">
+        <v>24.885000000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>28.327000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>32.228000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.7170000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3000</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1">
+        <v>34.744999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>37.935000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41.807000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.266</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4000</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1">
+        <v>53.042999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>57.454000000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>64.114999999999995</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.173</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5000</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1">
+        <v>60.988999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>66.414000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>74.418000000000006</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6000</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1">
+        <v>74.878</v>
+      </c>
+      <c r="C8" s="1">
+        <v>82.393000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>93.391000000000005</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3.722</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7000</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="1">
+        <v>83.186000000000007</v>
+      </c>
+      <c r="C9" s="1">
+        <v>91.073999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>108.758</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.0650000000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8000</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="1">
+        <v>97.543999999999997</v>
+      </c>
+      <c r="C10" s="1">
+        <v>117.846</v>
+      </c>
+      <c r="D10" s="1">
+        <v>146.65</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9000</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1">
+        <v>118.986</v>
+      </c>
+      <c r="C11" s="1">
+        <v>130.90899999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>155.76</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.3959999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10000</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1">
+        <v>112.122</v>
+      </c>
+      <c r="C12" s="1">
+        <v>138.179</v>
+      </c>
+      <c r="D12" s="1">
+        <v>174.333</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.3480000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5894,7 +6170,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5905,13 +6181,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5935,91 +6211,171 @@
       <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="1">
+        <v>1.732</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.1930000000000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.3659999999999997</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="1">
+        <v>3.863</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.8230000000000004</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.8420000000000005</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.097</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3000</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="B5" s="1">
+        <v>6.07</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.0419999999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>12.241</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.85399999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4000</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1">
+        <v>6.3710000000000004</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.5860000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>29.074000000000002</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.383</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5000</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1">
+        <v>8.5229999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.9320000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15.78</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.89200000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6000</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1">
+        <v>10.371</v>
+      </c>
+      <c r="C8" s="1">
+        <v>11.605</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20.387</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.1180000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7000</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="1">
+        <v>11.013999999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>15.994999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25.608000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.6379999999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8000</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="1">
+        <v>14.975</v>
+      </c>
+      <c r="C10" s="1">
+        <v>18.536000000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40.222000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.4060000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9000</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1">
+        <v>15.438000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20.18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>27.602</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.0529999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10000</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1">
+        <v>17.486000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>21.001000000000001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>30.957999999999998</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.0019999999999998</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinygobby/Desktop/Projects/Makers/Week_10/algorithmic-complexity/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439E7061-8822-C844-81DF-0BBA7F9396CB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23ACC01-F2E3-9844-B3E9-5F5BC8542DBB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="-21140" windowWidth="19200" windowHeight="21140" activeTab="2" xr2:uid="{55AD68BF-37E3-EA42-BDC5-DFDA6E8E6F44}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{55AD68BF-37E3-EA42-BDC5-DFDA6E8E6F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="7" r:id="rId1"/>
-    <sheet name="Last" sheetId="2" r:id="rId2"/>
-    <sheet name="Reverse" sheetId="1" r:id="rId3"/>
-    <sheet name="Shuffle" sheetId="4" r:id="rId4"/>
-    <sheet name="Sort" sheetId="6" r:id="rId5"/>
+    <sheet name="Last" sheetId="13" r:id="rId2"/>
+    <sheet name="Reverse" sheetId="8" r:id="rId3"/>
+    <sheet name="Shuffle" sheetId="11" r:id="rId4"/>
+    <sheet name="Sort" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,48 +29,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
-  <si>
-    <t>Reverse</t>
-  </si>
-  <si>
-    <t>Minimum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>Maximum</t>
-  </si>
-  <si>
-    <t>St Deviation</t>
   </si>
   <si>
     <t>Reverse(ns)</t>
   </si>
   <si>
-    <t>20 Iteration Warmup</t>
-  </si>
-  <si>
     <t>Size of Array</t>
   </si>
   <si>
-    <t>100 iterations</t>
-  </si>
-  <si>
     <t>Last(ns)</t>
-  </si>
-  <si>
-    <t>Overall</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>Shuffle</t>
-  </si>
-  <si>
-    <t>Sort</t>
   </si>
   <si>
     <t>Shuffle(μs)</t>
@@ -79,16 +49,25 @@
     <t>Sort(μs)</t>
   </si>
   <si>
-    <t>1000 iterations</t>
+    <t>Shuffle (100μs)</t>
+  </si>
+  <si>
+    <t>Sort (100μs)</t>
+  </si>
+  <si>
+    <t>Reverse (ns)</t>
+  </si>
+  <si>
+    <t>Last (ps)</t>
+  </si>
+  <si>
+    <t>Array Size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -118,9 +97,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,37 +130,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -197,7 +145,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Last</c:v>
+                  <c:v>Last (ps)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -260,34 +208,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>894</c:v>
+                  <c:v>788.65099999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>827</c:v>
+                  <c:v>779.69900000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>782</c:v>
+                  <c:v>778.6690000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>785</c:v>
+                  <c:v>825.34300000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>795</c:v>
+                  <c:v>826.62199999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>837</c:v>
+                  <c:v>807.59099999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>801</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>820</c:v>
+                  <c:v>811.18999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>818</c:v>
+                  <c:v>834.73799999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>813</c:v>
+                  <c:v>774.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,7 +256,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reverse</c:v>
+                  <c:v>Reverse (ns)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -371,34 +319,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>585.88300000000004</c:v>
+                  <c:v>586.95694000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1099.874</c:v>
+                  <c:v>1433.2226029999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1764.2070000000001</c:v>
+                  <c:v>1807.6836089999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2315.3490000000002</c:v>
+                  <c:v>2665.3289890000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2850.9769999999999</c:v>
+                  <c:v>2957.8029759999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3697.7260000000001</c:v>
+                  <c:v>3520.0461329999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3882.3739999999998</c:v>
+                  <c:v>4484.6599059999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4622.317</c:v>
+                  <c:v>5161.0485859999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5279.2849999999999</c:v>
+                  <c:v>5319.2178089999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5834.9219999999996</c:v>
+                  <c:v>5899.2739449999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,7 +367,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Shuffle</c:v>
+                  <c:v>Shuffle (100μs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -482,34 +430,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1294.5999999999999</c:v>
+                  <c:v>1348.808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2832.7000000000003</c:v>
+                  <c:v>2528.0339000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3793.5</c:v>
+                  <c:v>4001.6131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5745.4</c:v>
+                  <c:v>4687.7825999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6641.4000000000005</c:v>
+                  <c:v>6104.4874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8239.2999999999993</c:v>
+                  <c:v>7649.0201999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9107.4</c:v>
+                  <c:v>8883.9336999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11784.6</c:v>
+                  <c:v>9735.4383999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13090.9</c:v>
+                  <c:v>10807.84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13817.9</c:v>
+                  <c:v>12048.4203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,7 +478,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sort</c:v>
+                  <c:v>Sort (100μs)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -593,34 +541,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>219.3</c:v>
+                  <c:v>541.88289999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>482.30000000000007</c:v>
+                  <c:v>631.64550000000008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>704.19999999999993</c:v>
+                  <c:v>1073.2195000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>858.6</c:v>
+                  <c:v>1292.7291</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>993.2</c:v>
+                  <c:v>1816.1985999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1160.5</c:v>
+                  <c:v>2243.4935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1599.5</c:v>
+                  <c:v>3026.0735</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1853.6000000000001</c:v>
+                  <c:v>3208.9181000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2018</c:v>
+                  <c:v>3658.0097000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2100.1</c:v>
+                  <c:v>3984.6641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,12 +597,105 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="220583199"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -700,7 +741,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -811,10 +852,15 @@
               <a:rPr lang="en-US"/>
               <a:t>Last</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Linear Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -864,41 +910,80 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Last!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Last!$C$3:$C$12</c:f>
+              <c:f>Last!$B$3:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.89400000000000002</c:v>
+                  <c:v>0.78865099999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82699999999999996</c:v>
+                  <c:v>0.77969900000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.78200000000000003</c:v>
+                  <c:v>0.77866900000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78500000000000003</c:v>
+                  <c:v>0.82534300000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.79500000000000004</c:v>
+                  <c:v>0.82662199999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.83699999999999997</c:v>
+                  <c:v>0.80759099999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80100000000000005</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82</c:v>
+                  <c:v>0.81118999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81799999999999995</c:v>
+                  <c:v>0.83473799999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81299999999999994</c:v>
+                  <c:v>0.77419000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -906,7 +991,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-59BA-9A43-960B-70FF30820C8B}"/>
+              <c16:uniqueId val="{00000000-E252-9C45-88E4-43FA081269B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -919,11 +1004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="220477871"/>
-        <c:axId val="220479551"/>
+        <c:axId val="1901526064"/>
+        <c:axId val="279766607"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220477871"/>
+        <c:axId val="1901526064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -966,7 +1051,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220479551"/>
+        <c:crossAx val="279766607"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,11 +1059,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220479551"/>
+        <c:axId val="279766607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -996,7 +1079,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1027,7 +1110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220477871"/>
+        <c:crossAx val="1901526064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1041,6 +1124,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1111,12 +1201,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Reverse</a:t>
+              <a:t>Last - Logarithmic</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1152,12 +1247,12 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1168,39 +1263,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Reverse!$C$3:$C$12</c:f>
+              <c:f>Last!$B$13:$B$19</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>585.88300000000004</c:v>
+                  <c:v>0.80910199999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1099.874</c:v>
+                  <c:v>0.794512</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1764.2070000000001</c:v>
+                  <c:v>0.88824899999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2315.3490000000002</c:v>
+                  <c:v>0.77891100000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2850.9769999999999</c:v>
+                  <c:v>0.82356099999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3697.7260000000001</c:v>
+                  <c:v>0.80704200000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3882.3739999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4622.317</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5279.2849999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5834.9219999999996</c:v>
+                  <c:v>0.79585600000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,7 +1294,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1306-E54D-B3B5-6723B1BD08E8}"/>
+              <c16:uniqueId val="{00000000-5561-ED43-866F-955FEF894C49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1221,17 +1307,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="220477871"/>
-        <c:axId val="220479551"/>
+        <c:axId val="277100527"/>
+        <c:axId val="269269807"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220477871"/>
+        <c:axId val="277100527"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1268,7 +1353,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220479551"/>
+        <c:crossAx val="269269807"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1276,8 +1361,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220479551"/>
+        <c:axId val="269269807"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1296,7 +1382,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1327,7 +1413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220477871"/>
+        <c:crossAx val="277100527"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1341,6 +1427,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1413,10 +1506,15 @@
               <a:rPr lang="en-US"/>
               <a:t>Reverse</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Linear Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1466,41 +1564,80 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Reverse!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Shuffle!$C$3:$C$12</c:f>
+              <c:f>Reverse!$B$3:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12.946</c:v>
+                  <c:v>586.95694000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.327000000000002</c:v>
+                  <c:v>1433.2226029999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.935000000000002</c:v>
+                  <c:v>1807.6836089999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.454000000000001</c:v>
+                  <c:v>2665.3289890000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.414000000000001</c:v>
+                  <c:v>2957.8029759999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.393000000000001</c:v>
+                  <c:v>3520.0461329999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.073999999999998</c:v>
+                  <c:v>4484.6599059999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>117.846</c:v>
+                  <c:v>5161.0485859999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>130.90899999999999</c:v>
+                  <c:v>5319.2178089999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>138.179</c:v>
+                  <c:v>5899.2739449999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,7 +1645,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-354F-BB40-904E-B12B4AD96F7B}"/>
+              <c16:uniqueId val="{00000002-E854-9F47-86D9-3F155DBAF14C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1521,11 +1658,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="220477871"/>
-        <c:axId val="220479551"/>
+        <c:axId val="1901526064"/>
+        <c:axId val="279766607"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220477871"/>
+        <c:axId val="1901526064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,7 +1705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220479551"/>
+        <c:crossAx val="279766607"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1576,7 +1713,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220479551"/>
+        <c:axId val="279766607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1733,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1627,7 +1764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220477871"/>
+        <c:crossAx val="1901526064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,6 +1778,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1711,12 +1855,320 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Reverse</a:t>
+              <a:t>Reverse - Logarithmic</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Reverse!$B$13:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.68183300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.709099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.467561000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>653.15418299999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6347.5440939999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60366.200169999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>646889.76878000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-921D-664F-A578-C9E2BFC370AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="277100527"/>
+        <c:axId val="269269807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="277100527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269269807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="269269807"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277100527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Shuffle</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Linear Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1766,41 +2218,80 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Shuffle!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sort!$C$3:$C$12</c:f>
+              <c:f>Shuffle!$B$3:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.1930000000000001</c:v>
+                  <c:v>13.48808</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8230000000000004</c:v>
+                  <c:v>25.280339000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0419999999999998</c:v>
+                  <c:v>40.016131000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5860000000000003</c:v>
+                  <c:v>46.877825999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.9320000000000004</c:v>
+                  <c:v>61.044874</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.605</c:v>
+                  <c:v>76.490201999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.994999999999999</c:v>
+                  <c:v>88.839337</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.536000000000001</c:v>
+                  <c:v>97.354383999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.18</c:v>
+                  <c:v>108.0784</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.001000000000001</c:v>
+                  <c:v>120.48420299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,7 +2299,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-413A-9C45-9732-244CA86AB54C}"/>
+              <c16:uniqueId val="{00000000-34EA-4646-A0F2-2DCF86649B45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1821,11 +2312,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="220477871"/>
-        <c:axId val="220479551"/>
+        <c:axId val="1901526064"/>
+        <c:axId val="279766607"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220477871"/>
+        <c:axId val="1901526064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +2359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220479551"/>
+        <c:crossAx val="279766607"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1876,7 +2367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220479551"/>
+        <c:axId val="279766607"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,7 +2387,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1927,7 +2418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220477871"/>
+        <c:crossAx val="1901526064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1941,6 +2432,970 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Shuffle - Logarithmic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Shuffle!$B$13:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.2400000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7544000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3031140000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.711567000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.777143</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1340.7979029999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24124.50692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CED2-C848-8263-A6606C84F256}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="277100527"/>
+        <c:axId val="269269807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="277100527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269269807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="269269807"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277100527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Linear Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sort!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sort!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.4188289999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3164550000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.732195000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.927291</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.161985999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.434934999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.260735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.089181000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.580097000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.846640999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B5D-3D4C-964F-33B4B5F326D9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1901526064"/>
+        <c:axId val="279766607"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1901526064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279766607"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279766607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1901526064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sort - Logarithmic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sort!$B$13:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.4779999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1922000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33235799999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9071629999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.960799000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11500.349399999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113466.89834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B78-3A40-8E41-712DF525DA12}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="277100527"/>
+        <c:axId val="269269807"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="277100527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269269807"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="269269807"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="277100527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2176,6 +3631,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4756,20 +6371,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4801,23 +8480,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7F28F80-B7D7-A74A-8C64-D761B8A9BDED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7118768E-2295-0E41-91AE-7F5A6D7BA206}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4837,6 +8516,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316A8553-0242-6A41-A6D3-D586AD69913A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4844,23 +8561,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FA2972-BC6D-B34C-BC79-E675F4C188E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EAE062-2F50-CC48-9CDD-24EB9687577D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4878,6 +8595,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D58C256-97D9-EB4F-8AB3-5EA1D081DBA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4885,23 +8638,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADDE337-17B7-374C-8AB4-43C4A94E0E6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDF79D0B-293D-A145-B8C4-A5803B990AEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4921,6 +8674,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B59791E-4833-5D41-8863-84EC62DB9B84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4928,23 +8719,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C63AEA-232C-2B48-A415-6079D98B2F89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988AF3A4-70A4-BD4F-9A3E-BFDE4A28321B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4959,6 +8750,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B504662-A904-9542-8CF5-C76FE4DEDBCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5264,31 +9093,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909E9FA2-7A70-DD4C-B25A-29F9079A6979}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5296,20 +9127,20 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <f>Last!C3 * 1000</f>
-        <v>894</v>
+        <f>Last!B3*1000</f>
+        <v>788.65099999999995</v>
       </c>
       <c r="C3">
-        <f>Reverse!C3</f>
-        <v>585.88300000000004</v>
+        <f>Reverse!B3</f>
+        <v>586.95694000000003</v>
       </c>
       <c r="D3">
-        <f>Shuffle!C3 * 100</f>
-        <v>1294.5999999999999</v>
+        <f>Shuffle!B3*100</f>
+        <v>1348.808</v>
       </c>
       <c r="E3">
-        <f>Sort!C3*100</f>
-        <v>219.3</v>
+        <f>Sort!B3*100</f>
+        <v>541.88289999999995</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5317,20 +9148,20 @@
         <v>2000</v>
       </c>
       <c r="B4">
-        <f>Last!C4 * 1000</f>
-        <v>827</v>
+        <f>Last!B4*1000</f>
+        <v>779.69900000000007</v>
       </c>
       <c r="C4">
-        <f>Reverse!C4</f>
-        <v>1099.874</v>
+        <f>Reverse!B4</f>
+        <v>1433.2226029999999</v>
       </c>
       <c r="D4">
-        <f>Shuffle!C4 * 100</f>
-        <v>2832.7000000000003</v>
+        <f>Shuffle!B4*100</f>
+        <v>2528.0339000000004</v>
       </c>
       <c r="E4">
-        <f>Sort!C4*100</f>
-        <v>482.30000000000007</v>
+        <f>Sort!B4*100</f>
+        <v>631.64550000000008</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5338,20 +9169,20 @@
         <v>3000</v>
       </c>
       <c r="B5">
-        <f>Last!C5 * 1000</f>
-        <v>782</v>
+        <f>Last!B5*1000</f>
+        <v>778.6690000000001</v>
       </c>
       <c r="C5">
-        <f>Reverse!C5</f>
-        <v>1764.2070000000001</v>
+        <f>Reverse!B5</f>
+        <v>1807.6836089999999</v>
       </c>
       <c r="D5">
-        <f>Shuffle!C5 * 100</f>
-        <v>3793.5</v>
+        <f>Shuffle!B5*100</f>
+        <v>4001.6131</v>
       </c>
       <c r="E5">
-        <f>Sort!C5*100</f>
-        <v>704.19999999999993</v>
+        <f>Sort!B5*100</f>
+        <v>1073.2195000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5359,20 +9190,20 @@
         <v>4000</v>
       </c>
       <c r="B6">
-        <f>Last!C6 * 1000</f>
-        <v>785</v>
+        <f>Last!B6*1000</f>
+        <v>825.34300000000007</v>
       </c>
       <c r="C6">
-        <f>Reverse!C6</f>
-        <v>2315.3490000000002</v>
+        <f>Reverse!B6</f>
+        <v>2665.3289890000001</v>
       </c>
       <c r="D6">
-        <f>Shuffle!C6 * 100</f>
-        <v>5745.4</v>
+        <f>Shuffle!B6*100</f>
+        <v>4687.7825999999995</v>
       </c>
       <c r="E6">
-        <f>Sort!C6*100</f>
-        <v>858.6</v>
+        <f>Sort!B6*100</f>
+        <v>1292.7291</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5380,20 +9211,20 @@
         <v>5000</v>
       </c>
       <c r="B7">
-        <f>Last!C7 * 1000</f>
-        <v>795</v>
+        <f>Last!B7*1000</f>
+        <v>826.62199999999996</v>
       </c>
       <c r="C7">
-        <f>Reverse!C7</f>
-        <v>2850.9769999999999</v>
+        <f>Reverse!B7</f>
+        <v>2957.8029759999999</v>
       </c>
       <c r="D7">
-        <f>Shuffle!C7 * 100</f>
-        <v>6641.4000000000005</v>
+        <f>Shuffle!B7*100</f>
+        <v>6104.4874</v>
       </c>
       <c r="E7">
-        <f>Sort!C7*100</f>
-        <v>993.2</v>
+        <f>Sort!B7*100</f>
+        <v>1816.1985999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5401,20 +9232,20 @@
         <v>6000</v>
       </c>
       <c r="B8">
-        <f>Last!C8 * 1000</f>
-        <v>837</v>
+        <f>Last!B8*1000</f>
+        <v>807.59099999999989</v>
       </c>
       <c r="C8">
-        <f>Reverse!C8</f>
-        <v>3697.7260000000001</v>
+        <f>Reverse!B8</f>
+        <v>3520.0461329999998</v>
       </c>
       <c r="D8">
-        <f>Shuffle!C8 * 100</f>
-        <v>8239.2999999999993</v>
+        <f>Shuffle!B8*100</f>
+        <v>7649.0201999999999</v>
       </c>
       <c r="E8">
-        <f>Sort!C8*100</f>
-        <v>1160.5</v>
+        <f>Sort!B8*100</f>
+        <v>2243.4935</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5422,20 +9253,20 @@
         <v>7000</v>
       </c>
       <c r="B9">
-        <f>Last!C9 * 1000</f>
-        <v>801</v>
+        <f>Last!B9*1000</f>
+        <v>800</v>
       </c>
       <c r="C9">
-        <f>Reverse!C9</f>
-        <v>3882.3739999999998</v>
+        <f>Reverse!B9</f>
+        <v>4484.6599059999999</v>
       </c>
       <c r="D9">
-        <f>Shuffle!C9 * 100</f>
-        <v>9107.4</v>
+        <f>Shuffle!B9*100</f>
+        <v>8883.9336999999996</v>
       </c>
       <c r="E9">
-        <f>Sort!C9*100</f>
-        <v>1599.5</v>
+        <f>Sort!B9*100</f>
+        <v>3026.0735</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5443,20 +9274,20 @@
         <v>8000</v>
       </c>
       <c r="B10">
-        <f>Last!C10 * 1000</f>
-        <v>820</v>
+        <f>Last!B10*1000</f>
+        <v>811.18999999999994</v>
       </c>
       <c r="C10">
-        <f>Reverse!C10</f>
-        <v>4622.317</v>
+        <f>Reverse!B10</f>
+        <v>5161.0485859999999</v>
       </c>
       <c r="D10">
-        <f>Shuffle!C10 * 100</f>
-        <v>11784.6</v>
+        <f>Shuffle!B10*100</f>
+        <v>9735.4383999999991</v>
       </c>
       <c r="E10">
-        <f>Sort!C10*100</f>
-        <v>1853.6000000000001</v>
+        <f>Sort!B10*100</f>
+        <v>3208.9181000000003</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5464,20 +9295,20 @@
         <v>9000</v>
       </c>
       <c r="B11">
-        <f>Last!C11 * 1000</f>
-        <v>818</v>
+        <f>Last!B11*1000</f>
+        <v>834.73799999999994</v>
       </c>
       <c r="C11">
-        <f>Reverse!C11</f>
-        <v>5279.2849999999999</v>
+        <f>Reverse!B11</f>
+        <v>5319.2178089999998</v>
       </c>
       <c r="D11">
-        <f>Shuffle!C11 * 100</f>
-        <v>13090.9</v>
+        <f>Shuffle!B11*100</f>
+        <v>10807.84</v>
       </c>
       <c r="E11">
-        <f>Sort!C11*100</f>
-        <v>2018</v>
+        <f>Sort!B11*100</f>
+        <v>3658.0097000000001</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5485,20 +9316,20 @@
         <v>10000</v>
       </c>
       <c r="B12">
-        <f>Last!C12 * 1000</f>
-        <v>813</v>
+        <f>Last!B12*1000</f>
+        <v>774.19</v>
       </c>
       <c r="C12">
-        <f>Reverse!C12</f>
-        <v>5834.9219999999996</v>
+        <f>Reverse!B12</f>
+        <v>5899.2739449999999</v>
       </c>
       <c r="D12">
-        <f>Shuffle!C12 * 100</f>
-        <v>13817.9</v>
+        <f>Shuffle!B12*100</f>
+        <v>12048.4203</v>
       </c>
       <c r="E12">
-        <f>Sort!C12*100</f>
-        <v>2100.1</v>
+        <f>Sort!B12*100</f>
+        <v>3984.6641</v>
       </c>
     </row>
   </sheetData>
@@ -5508,216 +9339,164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A823CF-613D-4345-BA73-2F3072988B66}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF1DA4F-E345-BE4B-919F-1C521DE4CEE2}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="D3" s="1">
-        <v>14.72</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.14099999999999999</v>
+      <c r="B3">
+        <v>0.78865099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.82699999999999996</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1.155</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7.0999999999999994E-2</v>
+      <c r="B4">
+        <v>0.77969900000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3000</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2.1999999999999999E-2</v>
+      <c r="B5">
+        <v>0.77866900000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4000</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.88900000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.3E-2</v>
+      <c r="B6">
+        <v>0.82534300000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5000</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.1E-2</v>
+      <c r="B7">
+        <v>0.82662199999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6000</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.4219999999999999</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.11</v>
+      <c r="B8">
+        <v>0.80759099999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7000</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.80100000000000005</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.9000000000000001E-2</v>
+      <c r="B9">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8000</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.4510000000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8.8999999999999996E-2</v>
+      <c r="B10">
+        <v>0.81118999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9000</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.81799999999999995</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5.7000000000000002E-2</v>
+      <c r="B11">
+        <v>0.83473799999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10000</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.998</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4.7E-2</v>
+      <c r="B12">
+        <v>0.77419000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.80910199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>0.794512</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>0.88824899999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>0.77891100000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10000</v>
+      </c>
+      <c r="B17">
+        <v>0.82356099999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>100000</v>
+      </c>
+      <c r="B18">
+        <v>0.80704200000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>0.79585600000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5727,216 +9506,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19286BA-629F-524E-A7E7-59FE5BA336E0}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B2A959-9D3C-2C4A-A741-AF6012C119E4}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B3" s="1">
-        <v>558.35599999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>585.88300000000004</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1042.0909999999999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>52.488999999999997</v>
+      <c r="B3">
+        <v>586.95694000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B4" s="1">
-        <v>1074.347</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1099.874</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1255.518</v>
-      </c>
-      <c r="E4" s="1">
-        <v>32.357999999999997</v>
+      <c r="B4">
+        <v>1433.2226029999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3000</v>
       </c>
-      <c r="B5" s="1">
-        <v>1610.7529999999999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1764.2070000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2267.4540000000002</v>
-      </c>
-      <c r="E5" s="1">
-        <v>174.47300000000001</v>
+      <c r="B5">
+        <v>1807.6836089999999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4000</v>
       </c>
-      <c r="B6" s="1">
-        <v>2154.136</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2315.3490000000002</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2542.4949999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>106.051</v>
+      <c r="B6">
+        <v>2665.3289890000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5000</v>
       </c>
-      <c r="B7" s="1">
-        <v>2697.9960000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2850.9769999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3083.7440000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>97.025999999999996</v>
+      <c r="B7">
+        <v>2957.8029759999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6000</v>
       </c>
-      <c r="B8" s="1">
-        <v>3222.7759999999998</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3697.7260000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5048.3410000000003</v>
-      </c>
-      <c r="E8" s="1">
-        <v>459.99799999999999</v>
+      <c r="B8">
+        <v>3520.0461329999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7000</v>
       </c>
-      <c r="B9" s="1">
-        <v>3751.0459999999998</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3882.3739999999998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4332.5770000000002</v>
-      </c>
-      <c r="E9" s="1">
-        <v>138.596</v>
+      <c r="B9">
+        <v>4484.6599059999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8000</v>
       </c>
-      <c r="B10" s="1">
-        <v>4294.5590000000002</v>
-      </c>
-      <c r="C10" s="1">
-        <v>4622.317</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5580.4250000000002</v>
-      </c>
-      <c r="E10" s="1">
-        <v>264.22899999999998</v>
+      <c r="B10">
+        <v>5161.0485859999999</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9000</v>
       </c>
-      <c r="B11" s="1">
-        <v>4819.5450000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>5279.2849999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6735.6530000000002</v>
-      </c>
-      <c r="E11" s="1">
-        <v>416.53899999999999</v>
+      <c r="B11">
+        <v>5319.2178089999998</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10000</v>
       </c>
-      <c r="B12" s="1">
-        <v>5462.335</v>
-      </c>
-      <c r="C12" s="1">
-        <v>5834.9219999999996</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10695.126</v>
-      </c>
-      <c r="E12" s="1">
-        <v>764.13699999999994</v>
+      <c r="B12">
+        <v>5899.2739449999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.68183300000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>10.709099999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>67.467561000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>653.15418299999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10000</v>
+      </c>
+      <c r="B17">
+        <v>6347.5440939999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>100000</v>
+      </c>
+      <c r="B18">
+        <v>60366.200169999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>646889.76878000004</v>
       </c>
     </row>
   </sheetData>
@@ -5946,216 +9673,166 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B1A1C0-A2D8-0F48-B446-3388061B4743}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773E4B91-E0A2-524C-B577-E3C97931D039}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B3" s="1">
-        <v>11.263999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12.946</v>
-      </c>
-      <c r="D3" s="1">
-        <v>19.21</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.3049999999999999</v>
+      <c r="B3">
+        <v>13.48808</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B4" s="1">
-        <v>24.885000000000002</v>
-      </c>
-      <c r="C4" s="1">
-        <v>28.327000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <v>32.228000000000002</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.7170000000000001</v>
+      <c r="B4">
+        <v>25.280339000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3000</v>
       </c>
-      <c r="B5" s="1">
-        <v>34.744999999999997</v>
-      </c>
-      <c r="C5" s="1">
-        <v>37.935000000000002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>41.807000000000002</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.266</v>
+      <c r="B5">
+        <v>40.016131000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4000</v>
       </c>
-      <c r="B6" s="1">
-        <v>53.042999999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>57.454000000000001</v>
-      </c>
-      <c r="D6" s="1">
-        <v>64.114999999999995</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.173</v>
+      <c r="B6">
+        <v>46.877825999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5000</v>
       </c>
-      <c r="B7" s="1">
-        <v>60.988999999999997</v>
-      </c>
-      <c r="C7" s="1">
-        <v>66.414000000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>74.418000000000006</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2.65</v>
+      <c r="B7">
+        <v>61.044874</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6000</v>
       </c>
-      <c r="B8" s="1">
-        <v>74.878</v>
-      </c>
-      <c r="C8" s="1">
-        <v>82.393000000000001</v>
-      </c>
-      <c r="D8" s="1">
-        <v>93.391000000000005</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.722</v>
+      <c r="B8">
+        <v>76.490201999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7000</v>
       </c>
-      <c r="B9" s="1">
-        <v>83.186000000000007</v>
-      </c>
-      <c r="C9" s="1">
-        <v>91.073999999999998</v>
-      </c>
-      <c r="D9" s="1">
-        <v>108.758</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5.0650000000000004</v>
+      <c r="B9">
+        <v>88.839337</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8000</v>
       </c>
-      <c r="B10" s="1">
-        <v>97.543999999999997</v>
-      </c>
-      <c r="C10" s="1">
-        <v>117.846</v>
-      </c>
-      <c r="D10" s="1">
-        <v>146.65</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.31</v>
+      <c r="B10">
+        <v>97.354383999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9000</v>
       </c>
-      <c r="B11" s="1">
-        <v>118.986</v>
-      </c>
-      <c r="C11" s="1">
-        <v>130.90899999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>155.76</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7.3959999999999999</v>
+      <c r="B11">
+        <v>108.0784</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10000</v>
       </c>
-      <c r="B12" s="1">
-        <v>112.122</v>
-      </c>
-      <c r="C12" s="1">
-        <v>138.179</v>
-      </c>
-      <c r="D12" s="1">
-        <v>174.333</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1.3480000000000001</v>
+      <c r="B12">
+        <v>120.48420299999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>7.2400000000000003E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>9.7544000000000006E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>1.3031140000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>11.711567000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10000</v>
+      </c>
+      <c r="B17">
+        <v>120.777143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>100000</v>
+      </c>
+      <c r="B18">
+        <v>1340.7979029999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>24124.50692</v>
       </c>
     </row>
   </sheetData>
@@ -6165,216 +9842,166 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACF2990-EF06-C44F-8881-00134AF392E8}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620CB549-86AE-8148-AB7C-A87157D0D97F}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1000</v>
       </c>
-      <c r="B3" s="1">
-        <v>1.732</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.1930000000000001</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.3659999999999997</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.37</v>
+      <c r="B3">
+        <v>5.4188289999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2000</v>
       </c>
-      <c r="B4" s="1">
-        <v>3.863</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.8230000000000004</v>
-      </c>
-      <c r="D4" s="1">
-        <v>8.8420000000000005</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.097</v>
+      <c r="B4">
+        <v>6.3164550000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3000</v>
       </c>
-      <c r="B5" s="1">
-        <v>6.07</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7.0419999999999998</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12.241</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.85399999999999998</v>
+      <c r="B5">
+        <v>10.732195000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4000</v>
       </c>
-      <c r="B6" s="1">
-        <v>6.3710000000000004</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8.5860000000000003</v>
-      </c>
-      <c r="D6" s="1">
-        <v>29.074000000000002</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.383</v>
+      <c r="B6">
+        <v>12.927291</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5000</v>
       </c>
-      <c r="B7" s="1">
-        <v>8.5229999999999997</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9.9320000000000004</v>
-      </c>
-      <c r="D7" s="1">
-        <v>15.78</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.89200000000000002</v>
+      <c r="B7">
+        <v>18.161985999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6000</v>
       </c>
-      <c r="B8" s="1">
-        <v>10.371</v>
-      </c>
-      <c r="C8" s="1">
-        <v>11.605</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20.387</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.1180000000000001</v>
+      <c r="B8">
+        <v>22.434934999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7000</v>
       </c>
-      <c r="B9" s="1">
-        <v>11.013999999999999</v>
-      </c>
-      <c r="C9" s="1">
-        <v>15.994999999999999</v>
-      </c>
-      <c r="D9" s="1">
-        <v>25.608000000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.6379999999999999</v>
+      <c r="B9">
+        <v>30.260735</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8000</v>
       </c>
-      <c r="B10" s="1">
-        <v>14.975</v>
-      </c>
-      <c r="C10" s="1">
-        <v>18.536000000000001</v>
-      </c>
-      <c r="D10" s="1">
-        <v>40.222000000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3.4060000000000001</v>
+      <c r="B10">
+        <v>32.089181000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9000</v>
       </c>
-      <c r="B11" s="1">
-        <v>15.438000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20.18</v>
-      </c>
-      <c r="D11" s="1">
-        <v>27.602</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.0529999999999999</v>
+      <c r="B11">
+        <v>36.580097000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10000</v>
       </c>
-      <c r="B12" s="1">
-        <v>17.486000000000001</v>
-      </c>
-      <c r="C12" s="1">
-        <v>21.001000000000001</v>
-      </c>
-      <c r="D12" s="1">
-        <v>30.957999999999998</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.0019999999999998</v>
+      <c r="B12">
+        <v>39.846640999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1.4779999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>2.1922000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>100</v>
+      </c>
+      <c r="B15">
+        <v>0.33235799999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>1.9071629999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10000</v>
+      </c>
+      <c r="B17">
+        <v>35.960799000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>100000</v>
+      </c>
+      <c r="B18">
+        <v>11500.349399999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000000</v>
+      </c>
+      <c r="B19">
+        <v>113466.89834</v>
       </c>
     </row>
   </sheetData>
